--- a/data/pca/factorExposure/factorExposure_2016-09-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.004991867764517823</v>
+        <v>-0.0135549521467804</v>
       </c>
       <c r="C2">
-        <v>-0.05149806161826827</v>
+        <v>0.0428017122807464</v>
       </c>
       <c r="D2">
-        <v>-0.0251749396917712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06606611174316521</v>
+      </c>
+      <c r="E2">
+        <v>-0.0540154786785287</v>
+      </c>
+      <c r="F2">
+        <v>0.08528771893563437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.05707175620122506</v>
+        <v>-0.03314594867184228</v>
       </c>
       <c r="C3">
-        <v>-0.09917535534650961</v>
+        <v>0.07954565997953135</v>
       </c>
       <c r="D3">
-        <v>-0.06299200844769191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09529701402329649</v>
+      </c>
+      <c r="E3">
+        <v>-0.06611597405305793</v>
+      </c>
+      <c r="F3">
+        <v>0.01671309713670848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06031689400113361</v>
+        <v>-0.05753660695501955</v>
       </c>
       <c r="C4">
-        <v>-0.0580235340169863</v>
+        <v>0.06495721609609285</v>
       </c>
       <c r="D4">
-        <v>-0.02398123211962053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06200525279044892</v>
+      </c>
+      <c r="E4">
+        <v>-0.05136792069834085</v>
+      </c>
+      <c r="F4">
+        <v>0.08240802809104085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03081463381654121</v>
+        <v>-0.03312221762407118</v>
       </c>
       <c r="C6">
-        <v>-0.03975983864381715</v>
+        <v>0.03569059526204475</v>
       </c>
       <c r="D6">
-        <v>-0.02674610231015652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06988129883688649</v>
+      </c>
+      <c r="E6">
+        <v>-0.0602064749143459</v>
+      </c>
+      <c r="F6">
+        <v>0.07188885590465993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01603489342533923</v>
+        <v>-0.01913337491698946</v>
       </c>
       <c r="C7">
-        <v>-0.04017554399301636</v>
+        <v>0.03670466831460221</v>
       </c>
       <c r="D7">
-        <v>0.007417657655595239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03881530073767774</v>
+      </c>
+      <c r="E7">
+        <v>-0.03296928053607446</v>
+      </c>
+      <c r="F7">
+        <v>0.107042661919834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002315574422216481</v>
+        <v>-0.004227180206408709</v>
       </c>
       <c r="C8">
-        <v>-0.0216090347565852</v>
+        <v>0.02708466723036482</v>
       </c>
       <c r="D8">
-        <v>-0.02797726883023886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03628888847451966</v>
+      </c>
+      <c r="E8">
+        <v>-0.04231849581393562</v>
+      </c>
+      <c r="F8">
+        <v>0.05275485203664059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03077430730619524</v>
+        <v>-0.03690887603707652</v>
       </c>
       <c r="C9">
-        <v>-0.04140975833013839</v>
+        <v>0.05068441232542403</v>
       </c>
       <c r="D9">
-        <v>-0.01353093010962919</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04679872970079282</v>
+      </c>
+      <c r="E9">
+        <v>-0.04460003415566927</v>
+      </c>
+      <c r="F9">
+        <v>0.09048469993304618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0744902893704876</v>
+        <v>-0.1023046440073897</v>
       </c>
       <c r="C10">
-        <v>0.1941233754046064</v>
+        <v>-0.1917161119385246</v>
       </c>
       <c r="D10">
-        <v>-0.00745294401960584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0001949617097532236</v>
+      </c>
+      <c r="E10">
+        <v>-0.04573848864261538</v>
+      </c>
+      <c r="F10">
+        <v>0.03890286200483298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03555896652257209</v>
+        <v>-0.0352666556725715</v>
       </c>
       <c r="C11">
-        <v>-0.05482518281139761</v>
+        <v>0.05108786246721671</v>
       </c>
       <c r="D11">
-        <v>-0.0021690158283311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03462753512611638</v>
+      </c>
+      <c r="E11">
+        <v>-0.006385010902002867</v>
+      </c>
+      <c r="F11">
+        <v>0.06551337943230649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03351210166721662</v>
+        <v>-0.03590010973280718</v>
       </c>
       <c r="C12">
-        <v>-0.04587250459381622</v>
+        <v>0.04709457327214846</v>
       </c>
       <c r="D12">
-        <v>0.0005950205128078358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02617783172269156</v>
+      </c>
+      <c r="E12">
+        <v>-0.01554182299196455</v>
+      </c>
+      <c r="F12">
+        <v>0.06715382331130866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01113527409372135</v>
+        <v>-0.01201922776352379</v>
       </c>
       <c r="C13">
-        <v>-0.04073461230440054</v>
+        <v>0.04061402729768666</v>
       </c>
       <c r="D13">
-        <v>-0.01393450531096853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06623196538628906</v>
+      </c>
+      <c r="E13">
+        <v>-0.06553876266941866</v>
+      </c>
+      <c r="F13">
+        <v>0.1137092184518163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.005029188681778924</v>
+        <v>-0.005505711014776384</v>
       </c>
       <c r="C14">
-        <v>-0.03251294068929531</v>
+        <v>0.02941869530205741</v>
       </c>
       <c r="D14">
-        <v>0.01972613626421438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03043259743157249</v>
+      </c>
+      <c r="E14">
+        <v>-0.02887450163130607</v>
+      </c>
+      <c r="F14">
+        <v>0.09833860244616117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001366467039060641</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002737321142405818</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003460434576650406</v>
+      </c>
+      <c r="E15">
+        <v>7.058507147701582e-06</v>
+      </c>
+      <c r="F15">
+        <v>0.002495774055998523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03219174888896869</v>
+        <v>-0.03284371471966003</v>
       </c>
       <c r="C16">
-        <v>-0.04305593208138799</v>
+        <v>0.045395974742302</v>
       </c>
       <c r="D16">
-        <v>-0.004232381706731004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02974588646550459</v>
+      </c>
+      <c r="E16">
+        <v>-0.02082210558801868</v>
+      </c>
+      <c r="F16">
+        <v>0.0691112467834672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.0207323543295773</v>
+        <v>-0.01595799768089249</v>
       </c>
       <c r="C19">
-        <v>-0.05867402476190253</v>
+        <v>0.04984053737484929</v>
       </c>
       <c r="D19">
-        <v>-0.06744383253757989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1007536719345489</v>
+      </c>
+      <c r="E19">
+        <v>-0.08122537526533574</v>
+      </c>
+      <c r="F19">
+        <v>0.09189653688934125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01216294130768999</v>
+        <v>-0.01350454287669636</v>
       </c>
       <c r="C20">
-        <v>-0.04416313202005612</v>
+        <v>0.0399260366198125</v>
       </c>
       <c r="D20">
-        <v>-0.01481874173176273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0426303941104686</v>
+      </c>
+      <c r="E20">
+        <v>-0.05745651269475091</v>
+      </c>
+      <c r="F20">
+        <v>0.08833274379972236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.008330020143827971</v>
+        <v>-0.00813299454849525</v>
       </c>
       <c r="C21">
-        <v>-0.04917336638946686</v>
+        <v>0.04426050400306769</v>
       </c>
       <c r="D21">
-        <v>-0.0318177214209108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07288550551868593</v>
+      </c>
+      <c r="E21">
+        <v>-0.07528764344670014</v>
+      </c>
+      <c r="F21">
+        <v>0.1339549935124178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0004762830951534021</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02244898419987082</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03479923772439417</v>
+      </c>
+      <c r="E22">
+        <v>-0.017227864836412</v>
+      </c>
+      <c r="F22">
+        <v>0.01647227698924851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0005432455488225776</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02257821337464573</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03449436283823173</v>
+      </c>
+      <c r="E23">
+        <v>-0.01752070261045674</v>
+      </c>
+      <c r="F23">
+        <v>0.01634897603810526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02659082514168895</v>
+        <v>-0.03188806088340754</v>
       </c>
       <c r="C24">
-        <v>-0.04824403961965142</v>
+        <v>0.05302514730905798</v>
       </c>
       <c r="D24">
-        <v>4.638147924152505e-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02804587602039649</v>
+      </c>
+      <c r="E24">
+        <v>-0.01828904020170556</v>
+      </c>
+      <c r="F24">
+        <v>0.0770755312647162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0415302606160943</v>
+        <v>-0.0420950621957583</v>
       </c>
       <c r="C25">
-        <v>-0.05975372811703932</v>
+        <v>0.05792527056501658</v>
       </c>
       <c r="D25">
-        <v>0.00815765932444731</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02585577592462398</v>
+      </c>
+      <c r="E25">
+        <v>-0.01366452396614993</v>
+      </c>
+      <c r="F25">
+        <v>0.08028231824703304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.01258611220226013</v>
+        <v>-0.01362396798651989</v>
       </c>
       <c r="C26">
-        <v>-0.01631111446778027</v>
+        <v>0.01601244636103826</v>
       </c>
       <c r="D26">
-        <v>-0.0009772418252378336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02705514394189653</v>
+      </c>
+      <c r="E26">
+        <v>-0.03042925249169234</v>
+      </c>
+      <c r="F26">
+        <v>0.07370167559854708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.0864737890873666</v>
+        <v>-0.1374556782166207</v>
       </c>
       <c r="C28">
-        <v>0.2214670821471436</v>
+        <v>-0.2400571215183405</v>
       </c>
       <c r="D28">
-        <v>-0.00447022115779487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01565284546483432</v>
+      </c>
+      <c r="E28">
+        <v>-0.04959304388151593</v>
+      </c>
+      <c r="F28">
+        <v>0.05280224303373721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.008675182156118774</v>
+        <v>-0.006538406941776336</v>
       </c>
       <c r="C29">
-        <v>-0.02555292724900857</v>
+        <v>0.02527011392232371</v>
       </c>
       <c r="D29">
-        <v>0.01810455533075047</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02435684309018288</v>
+      </c>
+      <c r="E29">
+        <v>-0.03097181648877801</v>
+      </c>
+      <c r="F29">
+        <v>0.09041661669775779</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.04598945730283938</v>
+        <v>-0.04055635396022608</v>
       </c>
       <c r="C30">
-        <v>-0.06038106446539442</v>
+        <v>0.06459853245275519</v>
       </c>
       <c r="D30">
-        <v>-0.04270040420998837</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1091094745959094</v>
+      </c>
+      <c r="E30">
+        <v>-0.04235722379902225</v>
+      </c>
+      <c r="F30">
+        <v>0.101821867152636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04479624964261367</v>
+        <v>-0.05430297874790072</v>
       </c>
       <c r="C31">
-        <v>-0.03356682280947097</v>
+        <v>0.05390324198377172</v>
       </c>
       <c r="D31">
-        <v>0.01782758540200203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006382035800394825</v>
+      </c>
+      <c r="E31">
+        <v>-0.05023822447650161</v>
+      </c>
+      <c r="F31">
+        <v>0.0805607375805845</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.006755714686932388</v>
+        <v>-0.005010702784490902</v>
       </c>
       <c r="C32">
-        <v>-0.0454138347413685</v>
+        <v>0.03250431846185806</v>
       </c>
       <c r="D32">
-        <v>-0.01523710978001118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05153119900355977</v>
+      </c>
+      <c r="E32">
+        <v>-0.02516235801127484</v>
+      </c>
+      <c r="F32">
+        <v>0.0730274440471157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02422187892653677</v>
+        <v>-0.02411479313366518</v>
       </c>
       <c r="C33">
-        <v>-0.06015360917491382</v>
+        <v>0.05384466681805949</v>
       </c>
       <c r="D33">
-        <v>-0.02311162186005567</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08412924669956785</v>
+      </c>
+      <c r="E33">
+        <v>-0.05234661592751597</v>
+      </c>
+      <c r="F33">
+        <v>0.1276069664627976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0427896104594979</v>
+        <v>-0.03997156461253715</v>
       </c>
       <c r="C34">
-        <v>-0.05848054973623804</v>
+        <v>0.06359819234041984</v>
       </c>
       <c r="D34">
-        <v>0.006888738527637096</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03505609361976651</v>
+      </c>
+      <c r="E34">
+        <v>0.005237369268849123</v>
+      </c>
+      <c r="F34">
+        <v>0.07484755739374475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.008503876595770468</v>
+        <v>-0.01389554507002029</v>
       </c>
       <c r="C36">
-        <v>-0.01359350964500921</v>
+        <v>0.01170624745213972</v>
       </c>
       <c r="D36">
-        <v>5.49768555182973e-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03002847539550858</v>
+      </c>
+      <c r="E36">
+        <v>-0.03724290128998377</v>
+      </c>
+      <c r="F36">
+        <v>0.08213273444073611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.03017658747068092</v>
+        <v>-0.02474853913333513</v>
       </c>
       <c r="C38">
-        <v>-0.02992630570904519</v>
+        <v>0.02549662547040987</v>
       </c>
       <c r="D38">
-        <v>-0.0006558174231111697</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02860987471660618</v>
+      </c>
+      <c r="E38">
+        <v>-0.03601287436713343</v>
+      </c>
+      <c r="F38">
+        <v>0.06504023740654775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.03853948189473285</v>
+        <v>-0.03805334118196317</v>
       </c>
       <c r="C39">
-        <v>-0.07059927467926132</v>
+        <v>0.06814878328156815</v>
       </c>
       <c r="D39">
-        <v>-0.01972641151846715</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05345485186267905</v>
+      </c>
+      <c r="E39">
+        <v>-0.02025182624758556</v>
+      </c>
+      <c r="F39">
+        <v>0.09116905868098973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01604645533342559</v>
+        <v>-0.01694226410805082</v>
       </c>
       <c r="C40">
-        <v>-0.03049309803066112</v>
+        <v>0.03625279255948922</v>
       </c>
       <c r="D40">
-        <v>-0.03345899275149248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04298234952084823</v>
+      </c>
+      <c r="E40">
+        <v>-0.07487516425388259</v>
+      </c>
+      <c r="F40">
+        <v>0.08922783340670468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.008633337011268668</v>
+        <v>-0.01819897934556003</v>
       </c>
       <c r="C41">
-        <v>-0.00659779644510278</v>
+        <v>0.005847788563534187</v>
       </c>
       <c r="D41">
-        <v>0.001491890890633641</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01900863052882178</v>
+      </c>
+      <c r="E41">
+        <v>-0.0393464603400746</v>
+      </c>
+      <c r="F41">
+        <v>0.07076388827061936</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.0021477065793337</v>
+        <v>-0.001416605003694943</v>
       </c>
       <c r="C42">
-        <v>-0.00589834453251783</v>
+        <v>0.003185646094746073</v>
       </c>
       <c r="D42">
-        <v>-0.008492515256493249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.000687030145203459</v>
+      </c>
+      <c r="E42">
+        <v>-0.008201472887824825</v>
+      </c>
+      <c r="F42">
+        <v>-0.006272718225232024</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03044343994615687</v>
+        <v>-0.02979716066304588</v>
       </c>
       <c r="C43">
-        <v>-0.02132281953422854</v>
+        <v>0.02070650375640542</v>
       </c>
       <c r="D43">
-        <v>-0.00497388076497865</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04284791145718569</v>
+      </c>
+      <c r="E43">
+        <v>-0.04509806466544861</v>
+      </c>
+      <c r="F43">
+        <v>0.08319009415495254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.01519330471772968</v>
+        <v>-0.01444811853216318</v>
       </c>
       <c r="C44">
-        <v>-0.0583204312926357</v>
+        <v>0.05109407544639345</v>
       </c>
       <c r="D44">
-        <v>-0.0143497860241161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04209510257039466</v>
+      </c>
+      <c r="E44">
+        <v>-0.05882963304661514</v>
+      </c>
+      <c r="F44">
+        <v>0.08968099142580441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0001398074225303052</v>
+        <v>-0.007267229145763902</v>
       </c>
       <c r="C46">
-        <v>-0.02300412685697976</v>
+        <v>0.02482368009262832</v>
       </c>
       <c r="D46">
-        <v>0.02068811344403979</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01474425666434495</v>
+      </c>
+      <c r="E46">
+        <v>-0.0364446863093431</v>
+      </c>
+      <c r="F46">
+        <v>0.103328769550458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.07908233943108557</v>
+        <v>-0.085541917860654</v>
       </c>
       <c r="C47">
-        <v>-0.07109716566226147</v>
+        <v>0.08103947224110292</v>
       </c>
       <c r="D47">
-        <v>0.006939634314837535</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01549811205920917</v>
+      </c>
+      <c r="E47">
+        <v>-0.05617029249362709</v>
+      </c>
+      <c r="F47">
+        <v>0.0777945646645767</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01830330104891929</v>
+        <v>-0.01596951965810806</v>
       </c>
       <c r="C48">
-        <v>-0.01160447776202201</v>
+        <v>0.01723564795290273</v>
       </c>
       <c r="D48">
-        <v>0.005011336194030548</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02011050112321931</v>
+      </c>
+      <c r="E48">
+        <v>-0.04794821124407418</v>
+      </c>
+      <c r="F48">
+        <v>0.09547585927248389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0865947640873117</v>
+        <v>-0.07206390049737349</v>
       </c>
       <c r="C50">
-        <v>-0.06807107755887445</v>
+        <v>0.07042066073102386</v>
       </c>
       <c r="D50">
-        <v>0.01810442327373463</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003042179470171686</v>
+      </c>
+      <c r="E50">
+        <v>-0.05308638235636275</v>
+      </c>
+      <c r="F50">
+        <v>0.06731573512014138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.008090637406937124</v>
+        <v>-0.01048246296195052</v>
       </c>
       <c r="C51">
-        <v>-0.04688093368571895</v>
+        <v>0.03259186589318144</v>
       </c>
       <c r="D51">
-        <v>-0.000330403616708847</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05001397585387897</v>
+      </c>
+      <c r="E51">
+        <v>-0.02210756506213692</v>
+      </c>
+      <c r="F51">
+        <v>0.08612663763702269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.08241327763134663</v>
+        <v>-0.09145934640691684</v>
       </c>
       <c r="C53">
-        <v>-0.07472162373002876</v>
+        <v>0.08899091569213782</v>
       </c>
       <c r="D53">
-        <v>0.02122926276873353</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03708284703305487</v>
+      </c>
+      <c r="E53">
+        <v>-0.05535737673628492</v>
+      </c>
+      <c r="F53">
+        <v>0.08729418261869547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03014354852059576</v>
+        <v>-0.02797235604925349</v>
       </c>
       <c r="C54">
-        <v>-0.01980080327378764</v>
+        <v>0.02646622545087383</v>
       </c>
       <c r="D54">
-        <v>0.002135808055085349</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03304065025968107</v>
+      </c>
+      <c r="E54">
+        <v>-0.04182044537852715</v>
+      </c>
+      <c r="F54">
+        <v>0.0950532278943698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07155181238925813</v>
+        <v>-0.08223784370196659</v>
       </c>
       <c r="C55">
-        <v>-0.06592885748927313</v>
+        <v>0.07271810784283492</v>
       </c>
       <c r="D55">
-        <v>0.02667311092765231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04498473974013885</v>
+      </c>
+      <c r="E55">
+        <v>-0.04478082008199925</v>
+      </c>
+      <c r="F55">
+        <v>0.06333382414650517</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1494627175243284</v>
+        <v>-0.1438934215193392</v>
       </c>
       <c r="C56">
-        <v>-0.09236088945635078</v>
+        <v>0.1071638339280488</v>
       </c>
       <c r="D56">
-        <v>0.02441947229263957</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04831580995088734</v>
+      </c>
+      <c r="E56">
+        <v>-0.04965699931513918</v>
+      </c>
+      <c r="F56">
+        <v>0.05044459486675446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.001081852642006048</v>
+        <v>-0.0003769170822932935</v>
       </c>
       <c r="C57">
-        <v>-0.003595310822815077</v>
+        <v>0.001942089167738814</v>
       </c>
       <c r="D57">
-        <v>-0.01808576041289002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01635787087089993</v>
+      </c>
+      <c r="E57">
+        <v>-0.007635665338848769</v>
+      </c>
+      <c r="F57">
+        <v>0.01100154271317643</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05715552774280946</v>
+        <v>-0.03093858408446263</v>
       </c>
       <c r="C58">
-        <v>-0.02871288774382951</v>
+        <v>0.03766025817678356</v>
       </c>
       <c r="D58">
-        <v>-0.9507543088724745</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.492174250132412</v>
+      </c>
+      <c r="E58">
+        <v>-0.6702903291071611</v>
+      </c>
+      <c r="F58">
+        <v>-0.4765529631264696</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1369035095409275</v>
+        <v>-0.1500260532488352</v>
       </c>
       <c r="C59">
-        <v>0.2055774138838187</v>
+        <v>-0.185883345056177</v>
       </c>
       <c r="D59">
-        <v>-0.02304523538928625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03060555057434228</v>
+      </c>
+      <c r="E59">
+        <v>-0.02587652950423355</v>
+      </c>
+      <c r="F59">
+        <v>0.02123653073809618</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.3103688908623612</v>
+        <v>-0.2797838862330785</v>
       </c>
       <c r="C60">
-        <v>-0.0922721632065741</v>
+        <v>0.1003708803094967</v>
       </c>
       <c r="D60">
-        <v>-0.008663752553996016</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2040195198993693</v>
+      </c>
+      <c r="E60">
+        <v>0.2822851654840614</v>
+      </c>
+      <c r="F60">
+        <v>-0.1151448307541469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03607074844289205</v>
+        <v>-0.03975660289852133</v>
       </c>
       <c r="C61">
-        <v>-0.06359249722202108</v>
+        <v>0.06169127654498371</v>
       </c>
       <c r="D61">
-        <v>-0.00904103079524542</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04786822548857971</v>
+      </c>
+      <c r="E61">
+        <v>-0.02409365949942379</v>
+      </c>
+      <c r="F61">
+        <v>0.08147986567971265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01283755250554792</v>
+        <v>-0.01469066067179884</v>
       </c>
       <c r="C63">
-        <v>-0.03583377111231806</v>
+        <v>0.03118871344311545</v>
       </c>
       <c r="D63">
-        <v>0.004518066753648837</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02436511928334678</v>
+      </c>
+      <c r="E63">
+        <v>-0.03931312745121776</v>
+      </c>
+      <c r="F63">
+        <v>0.07518562506066669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.05151835866777945</v>
+        <v>-0.05567906642835561</v>
       </c>
       <c r="C64">
-        <v>-0.03408790587257961</v>
+        <v>0.05502662942354736</v>
       </c>
       <c r="D64">
-        <v>0.0110186456294684</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008289960886347411</v>
+      </c>
+      <c r="E64">
+        <v>-0.02424232640863884</v>
+      </c>
+      <c r="F64">
+        <v>0.08986167341805963</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.09052499104170986</v>
+        <v>-0.06628021904962887</v>
       </c>
       <c r="C65">
-        <v>-0.04167005898826748</v>
+        <v>0.0394500591594339</v>
       </c>
       <c r="D65">
-        <v>-0.04152332808524713</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08691768759103306</v>
+      </c>
+      <c r="E65">
+        <v>-0.03294928349168881</v>
+      </c>
+      <c r="F65">
+        <v>0.02451324403612946</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.05878819417190621</v>
+        <v>-0.05010372356320982</v>
       </c>
       <c r="C66">
-        <v>-0.105465340379513</v>
+        <v>0.09110661117443627</v>
       </c>
       <c r="D66">
-        <v>-0.0298672807450807</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08041436329559389</v>
+      </c>
+      <c r="E66">
+        <v>-0.02199255792160224</v>
+      </c>
+      <c r="F66">
+        <v>0.09249627110747764</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05383897186607137</v>
+        <v>-0.04752821302145106</v>
       </c>
       <c r="C67">
-        <v>-0.03456263839963335</v>
+        <v>0.03161777310698768</v>
       </c>
       <c r="D67">
-        <v>0.005568695149436834</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01496418956664392</v>
+      </c>
+      <c r="E67">
+        <v>-0.02048097308750791</v>
+      </c>
+      <c r="F67">
+        <v>0.0518414683044434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.112821727321238</v>
+        <v>-0.1551419909536204</v>
       </c>
       <c r="C68">
-        <v>0.2873847837286634</v>
+        <v>-0.2503933491709591</v>
       </c>
       <c r="D68">
-        <v>-0.004230299978574868</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0187027094765526</v>
+      </c>
+      <c r="E68">
+        <v>-0.04144955304396029</v>
+      </c>
+      <c r="F68">
+        <v>0.01793349269404707</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.08546496686259722</v>
+        <v>-0.08674748436049556</v>
       </c>
       <c r="C69">
-        <v>-0.06582746903625827</v>
+        <v>0.08670521747126436</v>
       </c>
       <c r="D69">
-        <v>0.03149949672599155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008963844300608622</v>
+      </c>
+      <c r="E69">
+        <v>-0.03300331362091159</v>
+      </c>
+      <c r="F69">
+        <v>0.09690720640714008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1169796461919307</v>
+        <v>-0.1473307351434095</v>
       </c>
       <c r="C71">
-        <v>0.2492709946192345</v>
+        <v>-0.2307873945509294</v>
       </c>
       <c r="D71">
-        <v>-0.02546125376812609</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01496331145458599</v>
+      </c>
+      <c r="E71">
+        <v>-0.06084414256640682</v>
+      </c>
+      <c r="F71">
+        <v>0.05502948919214323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.08315857157956236</v>
+        <v>-0.09572688359494672</v>
       </c>
       <c r="C72">
-        <v>-0.04952902321837353</v>
+        <v>0.05788381712328213</v>
       </c>
       <c r="D72">
-        <v>0.01671305202104159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02123040448351743</v>
+      </c>
+      <c r="E72">
+        <v>-0.01176193155105971</v>
+      </c>
+      <c r="F72">
+        <v>0.08221119262218379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4346233942567439</v>
+        <v>-0.3452930281494015</v>
       </c>
       <c r="C73">
-        <v>-0.0683333413375343</v>
+        <v>0.0832736138692978</v>
       </c>
       <c r="D73">
-        <v>-0.06773118579883508</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4227969568826205</v>
+      </c>
+      <c r="E73">
+        <v>0.4953197706081161</v>
+      </c>
+      <c r="F73">
+        <v>-0.2845546075254906</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1130518988589114</v>
+        <v>-0.1100572675729718</v>
       </c>
       <c r="C74">
-        <v>-0.1127032935346404</v>
+        <v>0.1017488839233393</v>
       </c>
       <c r="D74">
-        <v>0.003524324434781745</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02801874533344113</v>
+      </c>
+      <c r="E74">
+        <v>-0.06463372433019234</v>
+      </c>
+      <c r="F74">
+        <v>0.05621277696287021</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.2537020124160162</v>
+        <v>-0.2543848356364029</v>
       </c>
       <c r="C75">
-        <v>-0.1161636030839555</v>
+        <v>0.141590625637424</v>
       </c>
       <c r="D75">
-        <v>0.03555036795258138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1275154173864552</v>
+      </c>
+      <c r="E75">
+        <v>-0.07612703954505508</v>
+      </c>
+      <c r="F75">
+        <v>0.01852204633741442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.1142242137748443</v>
+        <v>-0.1268938222123436</v>
       </c>
       <c r="C76">
-        <v>-0.1004419447121224</v>
+        <v>0.1061698623870939</v>
       </c>
       <c r="D76">
-        <v>0.02132707450504965</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05748701605765709</v>
+      </c>
+      <c r="E76">
+        <v>-0.0698157787580389</v>
+      </c>
+      <c r="F76">
+        <v>0.06609083969268839</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07695674218641502</v>
+        <v>-0.06121161080775929</v>
       </c>
       <c r="C77">
-        <v>-0.05755700258116179</v>
+        <v>0.06688674798518052</v>
       </c>
       <c r="D77">
-        <v>-0.04530478852407084</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06529820030439749</v>
+      </c>
+      <c r="E77">
+        <v>-0.0672230209795253</v>
+      </c>
+      <c r="F77">
+        <v>0.1117466289612679</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04333713468883073</v>
+        <v>-0.0434406138876689</v>
       </c>
       <c r="C78">
-        <v>-0.04297685789049434</v>
+        <v>0.05387330136182359</v>
       </c>
       <c r="D78">
-        <v>-0.01426603023477313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07402339482088732</v>
+      </c>
+      <c r="E78">
+        <v>-0.02430799804734758</v>
+      </c>
+      <c r="F78">
+        <v>0.1037468438918145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02232936785142901</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03901385593686945</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05845922188223853</v>
+      </c>
+      <c r="E79">
+        <v>-0.04999872234915563</v>
+      </c>
+      <c r="F79">
+        <v>0.03514266312608864</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04589013018751503</v>
+        <v>-0.03336528036489674</v>
       </c>
       <c r="C80">
-        <v>-0.05236207925559224</v>
+        <v>0.05310436432647756</v>
       </c>
       <c r="D80">
-        <v>-0.02893594806051779</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04816391352841402</v>
+      </c>
+      <c r="E80">
+        <v>-0.008447488469547022</v>
+      </c>
+      <c r="F80">
+        <v>0.03296795084634226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1432081374722972</v>
+        <v>-0.1387940519226316</v>
       </c>
       <c r="C81">
-        <v>-0.07808225681049211</v>
+        <v>0.09932435905755799</v>
       </c>
       <c r="D81">
-        <v>0.01895570980108948</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09398092942470183</v>
+      </c>
+      <c r="E81">
+        <v>-0.08320950097159592</v>
+      </c>
+      <c r="F81">
+        <v>0.02194677679167958</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.121371267681619</v>
+        <v>-0.1932314091087554</v>
       </c>
       <c r="C82">
-        <v>-0.06147514978766914</v>
+        <v>0.141013347961884</v>
       </c>
       <c r="D82">
-        <v>0.1245264601328153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2268489138364002</v>
+      </c>
+      <c r="E82">
+        <v>-0.01588828515398409</v>
+      </c>
+      <c r="F82">
+        <v>0.08231526999804015</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.03019859480463291</v>
+        <v>-0.02684093825469321</v>
       </c>
       <c r="C83">
-        <v>-0.01969838545949296</v>
+        <v>0.03919926968962673</v>
       </c>
       <c r="D83">
-        <v>-0.01034573439170977</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03488905974735683</v>
+      </c>
+      <c r="E83">
+        <v>-0.008127954149504761</v>
+      </c>
+      <c r="F83">
+        <v>0.04843343870703307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.2296565806688211</v>
+        <v>-0.2039977483517335</v>
       </c>
       <c r="C85">
-        <v>-0.1134442259659129</v>
+        <v>0.1274086641934744</v>
       </c>
       <c r="D85">
-        <v>0.0867270320314729</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1051050111493604</v>
+      </c>
+      <c r="E85">
+        <v>-0.008154387424323822</v>
+      </c>
+      <c r="F85">
+        <v>-0.02030315522811594</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0002846543855541162</v>
+        <v>-0.01192511117786652</v>
       </c>
       <c r="C86">
-        <v>-0.0235781050082792</v>
+        <v>0.03006446171224961</v>
       </c>
       <c r="D86">
-        <v>-0.016180599261107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07307531951121643</v>
+      </c>
+      <c r="E86">
+        <v>-0.04460378261652068</v>
+      </c>
+      <c r="F86">
+        <v>0.1385956579762978</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.01558335908936088</v>
+        <v>-0.02007493600551663</v>
       </c>
       <c r="C87">
-        <v>-0.01933676544512668</v>
+        <v>0.02095031231283781</v>
       </c>
       <c r="D87">
-        <v>-0.08925172116471432</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09333599522314889</v>
+      </c>
+      <c r="E87">
+        <v>-0.08619107354165345</v>
+      </c>
+      <c r="F87">
+        <v>0.09136021644007315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.1023123261601775</v>
+        <v>-0.08952265538974252</v>
       </c>
       <c r="C88">
-        <v>-0.07244233008593978</v>
+        <v>0.06474312015630018</v>
       </c>
       <c r="D88">
-        <v>0.01558904410530165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0123190054345349</v>
+      </c>
+      <c r="E88">
+        <v>-0.0318453091813687</v>
+      </c>
+      <c r="F88">
+        <v>0.06709068295734934</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1863197464115194</v>
+        <v>-0.2298191578747406</v>
       </c>
       <c r="C89">
-        <v>0.3762434695613128</v>
+        <v>-0.3786507638356328</v>
       </c>
       <c r="D89">
-        <v>0.02657777348795659</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01444985475421724</v>
+      </c>
+      <c r="E89">
+        <v>-0.03919327930239549</v>
+      </c>
+      <c r="F89">
+        <v>0.09863889385836615</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1766696941893869</v>
+        <v>-0.2067831940066604</v>
       </c>
       <c r="C90">
-        <v>0.3432618223962061</v>
+        <v>-0.3127502716969886</v>
       </c>
       <c r="D90">
-        <v>0.003351446049343819</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01348621056063902</v>
+      </c>
+      <c r="E90">
+        <v>-0.06465968825519866</v>
+      </c>
+      <c r="F90">
+        <v>0.0459909216639651</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.201386165309925</v>
+        <v>-0.1888079825535328</v>
       </c>
       <c r="C91">
-        <v>-0.1100723914821931</v>
+        <v>0.1404502242154125</v>
       </c>
       <c r="D91">
-        <v>0.03901259769082716</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1016628187676414</v>
+      </c>
+      <c r="E91">
+        <v>-0.07374796610702694</v>
+      </c>
+      <c r="F91">
+        <v>0.04387448576101718</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1686466975492343</v>
+        <v>-0.1866072095676776</v>
       </c>
       <c r="C92">
-        <v>0.2875669923728698</v>
+        <v>-0.2781868201268866</v>
       </c>
       <c r="D92">
-        <v>0.01230359078745271</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.00484437561982905</v>
+      </c>
+      <c r="E92">
+        <v>-0.0691100971958625</v>
+      </c>
+      <c r="F92">
+        <v>0.0679683637329994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.2030343974335344</v>
+        <v>-0.2302706299509728</v>
       </c>
       <c r="C93">
-        <v>0.3430425090246473</v>
+        <v>-0.3172467847741822</v>
       </c>
       <c r="D93">
-        <v>-0.008173894514558898</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0001401843158451643</v>
+      </c>
+      <c r="E93">
+        <v>-0.04943054983912439</v>
+      </c>
+      <c r="F93">
+        <v>0.04096486219487495</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.3286522836644736</v>
+        <v>-0.3379519957352025</v>
       </c>
       <c r="C94">
-        <v>-0.1679111354230963</v>
+        <v>0.1956854797231196</v>
       </c>
       <c r="D94">
-        <v>0.1405018723169613</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4755365080875524</v>
+      </c>
+      <c r="E94">
+        <v>-0.1436478272347756</v>
+      </c>
+      <c r="F94">
+        <v>-0.4398968558161137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.09115370471610053</v>
+        <v>-0.08156808389764923</v>
       </c>
       <c r="C95">
-        <v>-0.05571066765904081</v>
+        <v>0.07102540061925003</v>
       </c>
       <c r="D95">
-        <v>-0.0484091321401744</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1548075633536922</v>
+      </c>
+      <c r="E95">
+        <v>0.1342283370583112</v>
+      </c>
+      <c r="F95">
+        <v>0.1758660832947374</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1952567078950728</v>
+        <v>-0.1886335848842804</v>
       </c>
       <c r="C98">
-        <v>-0.01936077582619889</v>
+        <v>0.04290354930856345</v>
       </c>
       <c r="D98">
-        <v>-0.04060610673620418</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1725952184793049</v>
+      </c>
+      <c r="E98">
+        <v>0.1580199234782304</v>
+      </c>
+      <c r="F98">
+        <v>-0.03389628885859562</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.008409762913549525</v>
+        <v>-0.006420869548693542</v>
       </c>
       <c r="C101">
-        <v>-0.02568862829094458</v>
+        <v>0.02502392021702007</v>
       </c>
       <c r="D101">
-        <v>0.01832472918920696</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02369395087394748</v>
+      </c>
+      <c r="E101">
+        <v>-0.03144050921333328</v>
+      </c>
+      <c r="F101">
+        <v>0.08993188637293402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.1193338502359036</v>
+        <v>-0.1218944956100355</v>
       </c>
       <c r="C102">
-        <v>-0.07401224203946123</v>
+        <v>0.1015682460815504</v>
       </c>
       <c r="D102">
-        <v>0.03589562535221422</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05093873295992189</v>
+      </c>
+      <c r="E102">
+        <v>0.00738076080616888</v>
+      </c>
+      <c r="F102">
+        <v>0.04044547140195766</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
